--- a/K1/O2SparingPID/PID_Parameters.xlsx
+++ b/K1/O2SparingPID/PID_Parameters.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marc Thomson\Documents\School Docs\College\Senior Year\Second Semester\Design\DesignCode\K1\O2SparingPID\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C6D101-E13B-4C6F-B571-B95E7F3D197B}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E293921E-D116-4CB8-ADAD-0421CB03BB3A}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" xr2:uid="{4913F4D3-42D5-409E-8579-93C440B064E3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" activeTab="1" xr2:uid="{4913F4D3-42D5-409E-8579-93C440B064E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>PID Parameters</t>
   </si>
@@ -87,12 +88,6 @@
     <t>O2_0</t>
   </si>
   <si>
-    <t>3/9</t>
-  </si>
-  <si>
-    <t>0.5</t>
-  </si>
-  <si>
     <t>Flow_O2</t>
   </si>
   <si>
@@ -102,12 +97,6 @@
     <t>Flow_air</t>
   </si>
   <si>
-    <t>Finalized</t>
-  </si>
-  <si>
-    <t>In Progress</t>
-  </si>
-  <si>
     <t>Output</t>
   </si>
   <si>
@@ -127,12 +116,20 @@
   </si>
   <si>
     <t>Kd Flow</t>
+  </si>
+  <si>
+    <t>Max N (rpm)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.0E+00"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -142,24 +139,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="12">
@@ -299,18 +284,31 @@
   </cellStyleXfs>
   <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -320,19 +318,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -647,10 +632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D1D8B46-046F-4DAB-BE6C-4D9E55AAFA21}">
-  <dimension ref="A1:S14"/>
+  <dimension ref="A1:U17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection sqref="A1:T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -661,450 +646,543 @@
     <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="12" customWidth="1"/>
+    <col min="20" max="20" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="H2" s="13" t="s">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="H2" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="14"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="13" t="s">
+      <c r="I2" s="27"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="14"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="13" t="s">
+      <c r="L2" s="27"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="14"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="13" t="s">
+      <c r="O2" s="27"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="1"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="14"/>
-      <c r="S2" s="15"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="O3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="T3" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="U3" s="1"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C4" s="6">
+        <v>0.06</v>
+      </c>
+      <c r="D4" s="6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E4" s="6">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0.06</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0.39</v>
+      </c>
+      <c r="H4" s="15">
+        <v>1</v>
+      </c>
+      <c r="I4" s="5">
+        <v>300</v>
+      </c>
+      <c r="J4" s="16">
+        <v>0</v>
+      </c>
+      <c r="K4" s="15">
+        <v>10</v>
+      </c>
+      <c r="L4" s="5">
+        <v>1000</v>
+      </c>
+      <c r="M4" s="16">
+        <v>0</v>
+      </c>
+      <c r="N4" s="15">
+        <v>0</v>
+      </c>
+      <c r="O4" s="5">
+        <v>0</v>
+      </c>
+      <c r="P4" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="24">
+        <v>2289.5</v>
+      </c>
+      <c r="R4" s="24">
+        <v>326.38209999999998</v>
+      </c>
+      <c r="S4" s="24">
+        <v>3467.6</v>
+      </c>
+      <c r="T4" s="13">
+        <v>91.127399999999994</v>
+      </c>
+      <c r="U4" s="1"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A5" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0.06</v>
+      </c>
+      <c r="D5" s="11">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="F5" s="6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0.35</v>
+      </c>
+      <c r="H5" s="15">
+        <v>1</v>
+      </c>
+      <c r="I5" s="5">
+        <v>500</v>
+      </c>
+      <c r="J5" s="16">
+        <v>0</v>
+      </c>
+      <c r="K5" s="15">
+        <v>10</v>
+      </c>
+      <c r="L5" s="5">
+        <v>1000</v>
+      </c>
+      <c r="M5" s="16">
+        <v>0</v>
+      </c>
+      <c r="N5" s="15">
+        <v>0</v>
+      </c>
+      <c r="O5" s="5">
+        <v>0</v>
+      </c>
+      <c r="P5" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="24">
+        <v>1495.7</v>
+      </c>
+      <c r="R5" s="24">
+        <v>490.9316</v>
+      </c>
+      <c r="S5" s="24">
+        <v>5284.2</v>
+      </c>
+      <c r="T5" s="13">
+        <v>92.038700000000006</v>
+      </c>
+      <c r="U5" s="1"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A6" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0.06</v>
+      </c>
+      <c r="D6" s="6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0.06</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0.35</v>
+      </c>
+      <c r="H6" s="15">
+        <v>1</v>
+      </c>
+      <c r="I6" s="5">
+        <v>500</v>
+      </c>
+      <c r="J6" s="16">
+        <v>0</v>
+      </c>
+      <c r="K6" s="15">
+        <v>10</v>
+      </c>
+      <c r="L6" s="5">
+        <v>1000</v>
+      </c>
+      <c r="M6" s="16">
+        <v>0</v>
+      </c>
+      <c r="N6" s="15">
+        <v>0</v>
+      </c>
+      <c r="O6" s="5">
+        <v>0</v>
+      </c>
+      <c r="P6" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="24">
+        <v>56.739600000000003</v>
+      </c>
+      <c r="R6" s="24">
+        <v>7.4065000000000003</v>
+      </c>
+      <c r="S6" s="24">
+        <v>5.0342000000000002</v>
+      </c>
+      <c r="T6" s="13">
+        <v>145.4633</v>
+      </c>
+      <c r="U6" s="1"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A7" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0.06</v>
+      </c>
+      <c r="D7" s="6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0.08</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H7" s="15">
         <v>2</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M3" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="N3" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="P3" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="S3" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="7">
+      <c r="I7" s="5">
+        <v>500</v>
+      </c>
+      <c r="J7" s="16">
+        <v>0</v>
+      </c>
+      <c r="K7" s="15">
+        <v>20</v>
+      </c>
+      <c r="L7" s="5">
+        <v>500</v>
+      </c>
+      <c r="M7" s="16">
+        <v>0</v>
+      </c>
+      <c r="N7" s="15">
+        <v>0</v>
+      </c>
+      <c r="O7" s="5">
+        <v>0</v>
+      </c>
+      <c r="P7" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="24">
+        <v>81.108800000000002</v>
+      </c>
+      <c r="R7" s="24">
+        <v>11.064</v>
+      </c>
+      <c r="S7" s="24">
+        <v>58.284799999999997</v>
+      </c>
+      <c r="T7" s="13">
+        <v>118.0333</v>
+      </c>
+      <c r="U7" s="1"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="5">
+        <v>0</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.06</v>
+      </c>
+      <c r="D8" s="6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="F8" s="6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="H8" s="15">
+        <v>2</v>
+      </c>
+      <c r="I8" s="5">
+        <v>500</v>
+      </c>
+      <c r="J8" s="16">
+        <v>0</v>
+      </c>
+      <c r="K8" s="15">
+        <v>20</v>
+      </c>
+      <c r="L8" s="5">
+        <v>1000</v>
+      </c>
+      <c r="M8" s="16">
+        <v>0</v>
+      </c>
+      <c r="N8" s="15">
+        <v>0</v>
+      </c>
+      <c r="O8" s="5">
+        <v>0</v>
+      </c>
+      <c r="P8" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="24">
+        <v>165.94900000000001</v>
+      </c>
+      <c r="R8" s="24">
+        <v>32.291899999999998</v>
+      </c>
+      <c r="S8" s="24">
+        <v>311.4837</v>
+      </c>
+      <c r="T8" s="13">
+        <v>97.700900000000004</v>
+      </c>
+      <c r="U8" s="1"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="10">
+        <v>0</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0.06</v>
+      </c>
+      <c r="D9" s="19">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0.45</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="H9" s="17">
         <v>1</v>
       </c>
-      <c r="C4" s="8">
-        <v>0.06</v>
-      </c>
-      <c r="D4" s="8">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="8">
-        <v>0.06</v>
-      </c>
-      <c r="G4" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="H4" s="18">
-        <v>2</v>
-      </c>
-      <c r="I4" s="8">
-        <v>200</v>
-      </c>
-      <c r="J4" s="19">
-        <v>0</v>
-      </c>
-      <c r="K4" s="18">
+      <c r="I9" s="10">
+        <v>500</v>
+      </c>
+      <c r="J9" s="18">
+        <v>0</v>
+      </c>
+      <c r="K9" s="17">
         <v>10</v>
       </c>
-      <c r="L4" s="8">
+      <c r="L9" s="10">
         <v>1000</v>
       </c>
-      <c r="M4" s="19">
-        <v>0</v>
-      </c>
-      <c r="N4" s="18">
-        <v>0.05</v>
-      </c>
-      <c r="O4" s="8">
-        <v>5</v>
-      </c>
-      <c r="P4" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="10"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="7">
-        <v>0</v>
-      </c>
-      <c r="C5" s="8">
-        <v>0.06</v>
-      </c>
-      <c r="D5" s="8">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="8">
-        <v>0.06</v>
-      </c>
-      <c r="G5" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="H5" s="18">
-        <v>2</v>
-      </c>
-      <c r="I5" s="8">
-        <v>200</v>
-      </c>
-      <c r="J5" s="19">
-        <v>0</v>
-      </c>
-      <c r="K5" s="18">
-        <v>10</v>
-      </c>
-      <c r="L5" s="8">
-        <v>1000</v>
-      </c>
-      <c r="M5" s="19">
-        <v>0</v>
-      </c>
-      <c r="N5" s="18">
-        <v>0.05</v>
-      </c>
-      <c r="O5" s="8">
-        <v>5</v>
-      </c>
-      <c r="P5" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="10"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="7">
-        <v>0</v>
-      </c>
-      <c r="C6" s="8">
-        <v>0.06</v>
-      </c>
-      <c r="D6" s="8">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="8">
-        <v>0.06</v>
-      </c>
-      <c r="G6" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="H6" s="18">
-        <v>2</v>
-      </c>
-      <c r="I6" s="8">
-        <v>200</v>
-      </c>
-      <c r="J6" s="19">
-        <v>0</v>
-      </c>
-      <c r="K6" s="18">
-        <v>10</v>
-      </c>
-      <c r="L6" s="8">
-        <v>1000</v>
-      </c>
-      <c r="M6" s="19">
-        <v>0</v>
-      </c>
-      <c r="N6" s="18">
-        <v>0.05</v>
-      </c>
-      <c r="O6" s="8">
-        <v>5</v>
-      </c>
-      <c r="P6" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="10"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="7">
-        <v>0</v>
-      </c>
-      <c r="C7" s="8">
-        <v>0.06</v>
-      </c>
-      <c r="D7" s="8">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="8">
-        <v>0.06</v>
-      </c>
-      <c r="G7" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="H7" s="18">
-        <v>2</v>
-      </c>
-      <c r="I7" s="8">
-        <v>200</v>
-      </c>
-      <c r="J7" s="19">
-        <v>0</v>
-      </c>
-      <c r="K7" s="18">
-        <v>10</v>
-      </c>
-      <c r="L7" s="8">
-        <v>1000</v>
-      </c>
-      <c r="M7" s="19">
-        <v>0</v>
-      </c>
-      <c r="N7" s="18">
-        <v>0.05</v>
-      </c>
-      <c r="O7" s="8">
-        <v>5</v>
-      </c>
-      <c r="P7" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="10"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="7">
-        <v>0</v>
-      </c>
-      <c r="C8" s="8">
-        <v>0.06</v>
-      </c>
-      <c r="D8" s="8">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="8">
-        <v>0.06</v>
-      </c>
-      <c r="G8" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="H8" s="18">
-        <v>2</v>
-      </c>
-      <c r="I8" s="8">
-        <v>200</v>
-      </c>
-      <c r="J8" s="19">
-        <v>0</v>
-      </c>
-      <c r="K8" s="18">
-        <v>10</v>
-      </c>
-      <c r="L8" s="8">
-        <v>1000</v>
-      </c>
-      <c r="M8" s="19">
-        <v>0</v>
-      </c>
-      <c r="N8" s="18">
-        <v>0.05</v>
-      </c>
-      <c r="O8" s="8">
-        <v>5</v>
-      </c>
-      <c r="P8" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="10"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A9" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="22">
-        <v>0</v>
-      </c>
-      <c r="C9" s="11">
-        <v>0.06</v>
-      </c>
-      <c r="D9" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="11">
-        <v>0.06</v>
-      </c>
-      <c r="G9" s="11">
-        <v>0.4</v>
-      </c>
-      <c r="H9" s="20">
-        <v>2</v>
-      </c>
-      <c r="I9" s="11">
-        <v>200</v>
-      </c>
-      <c r="J9" s="21">
-        <v>0</v>
-      </c>
-      <c r="K9" s="20">
-        <v>10</v>
-      </c>
-      <c r="L9" s="11">
-        <v>1000</v>
-      </c>
-      <c r="M9" s="21">
-        <v>0</v>
-      </c>
-      <c r="N9" s="20">
-        <v>0.05</v>
-      </c>
-      <c r="O9" s="11">
-        <v>5</v>
-      </c>
-      <c r="P9" s="21">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="12"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A13" s="24" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A14" s="25" t="s">
-        <v>25</v>
-      </c>
+      <c r="M9" s="18">
+        <v>0</v>
+      </c>
+      <c r="N9" s="17">
+        <v>0</v>
+      </c>
+      <c r="O9" s="10">
+        <v>0</v>
+      </c>
+      <c r="P9" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="25">
+        <v>97.721500000000006</v>
+      </c>
+      <c r="R9" s="25">
+        <v>14.5451</v>
+      </c>
+      <c r="S9" s="25">
+        <v>89.558999999999997</v>
+      </c>
+      <c r="T9" s="14">
+        <v>111.1927</v>
+      </c>
+      <c r="U9" s="1"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A10" s="22"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A11" s="23"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A12" s="23"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A13" s="23"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A14" s="23"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A15" s="23"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A16" s="23"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
-    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="Q2:T2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7127AA7D-9233-4665-8B32-78D57B94839A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>